--- a/Genomics_scripts/Data/windows_lost.xlsx
+++ b/Genomics_scripts/Data/windows_lost.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/AM_Workshop/AM_Workshop/Genomics_scripts/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AEB2FD8F-30C6-2448-927B-31F10CE4494D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E553E438-6649-5C40-86B7-6B153987A4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="960" windowWidth="34240" windowHeight="21000"/>
+    <workbookView xWindow="320" yWindow="960" windowWidth="34240" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="windows_lost" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
   <si>
     <t>MAT (34)</t>
   </si>
@@ -69,12 +70,24 @@
   </si>
   <si>
     <t>SNPs available</t>
+  </si>
+  <si>
+    <t>CMD</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAT </t>
+  </si>
+  <si>
+    <t>Number of Windows Included</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -555,7 +568,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -564,6 +577,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -918,11 +937,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="372" zoomScaleNormal="372" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:E26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E29" sqref="A21:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -930,12 +949,19 @@
     <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -951,8 +977,23 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -968,8 +1009,26 @@
       <c r="E3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>34-C3</f>
+        <v>32</v>
+      </c>
+      <c r="J3">
+        <f>41-D3</f>
+        <v>36</v>
+      </c>
+      <c r="K3">
+        <f>36-E3</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -985,8 +1044,26 @@
       <c r="E4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I9" si="0">34-C4</f>
+        <v>31</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J9" si="1">41-D4</f>
+        <v>35</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K9" si="2">36-E4</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1002,8 +1079,26 @@
       <c r="E5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1019,8 +1114,26 @@
       <c r="E6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1036,8 +1149,26 @@
       <c r="E7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1053,8 +1184,26 @@
       <c r="E8">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1070,13 +1219,31 @@
       <c r="E9">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1093,7 +1260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1113,7 +1280,7 @@
         <v>8.3333333333333321</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1121,19 +1288,19 @@
         <v>0.5</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" ref="C14:C19" si="0">C4/34*100</f>
+        <f t="shared" ref="C14:C19" si="3">C4/34*100</f>
         <v>8.8235294117647065</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ref="D14:D19" si="1">D4/41*100</f>
+        <f t="shared" ref="D14:D19" si="4">D4/41*100</f>
         <v>14.634146341463413</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" ref="E14:E19" si="2">E4/36*100</f>
+        <f t="shared" ref="E14:E19" si="5">E4/36*100</f>
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1141,19 +1308,19 @@
         <v>1.3</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.8235294117647065</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>21.951219512195124</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1161,15 +1328,15 @@
         <v>2</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.8235294117647065</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>24.390243902439025</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>22.222222222222221</v>
       </c>
     </row>
@@ -1181,15 +1348,15 @@
         <v>5</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>26.47058823529412</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>31.707317073170731</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>41.666666666666671</v>
       </c>
     </row>
@@ -1201,15 +1368,15 @@
         <v>10</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>67.64705882352942</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>65.853658536585371</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>63.888888888888886</v>
       </c>
     </row>
@@ -1221,22 +1388,26 @@
         <v>20</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>94.117647058823522</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>95.121951219512198</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>97.222222222222214</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -1375,6 +1546,47 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A21:E21"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECE5BF4-798C-AD45-889F-CDB9B1373C96}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4">
+        <v>41</v>
+      </c>
+      <c r="C2" s="4">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>